--- a/Shading Nets/my_graphs/impact_2.xlsx
+++ b/Shading Nets/my_graphs/impact_2.xlsx
@@ -534,70 +534,70 @@
         <v>22</v>
       </c>
       <c r="B2">
-        <v>-262.3187523437664</v>
+        <v>-0.488034887239337</v>
       </c>
       <c r="C2">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D2">
-        <v>-0.02782277301594149</v>
+        <v>-5.176330159883946E-05</v>
       </c>
       <c r="E2">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F2">
-        <v>-0.9610104320763639</v>
+        <v>-0.001787926386896288</v>
       </c>
       <c r="G2">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H2">
-        <v>-0.0005643284139296156</v>
+        <v>-1.049911588779651E-06</v>
       </c>
       <c r="I2">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J2">
-        <v>-9.634711541701108</v>
+        <v>-0.01792504452168941</v>
       </c>
       <c r="K2">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L2">
-        <v>-13.8353987140581</v>
+        <v>-0.02574027632363141</v>
       </c>
       <c r="M2">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N2">
-        <v>-210.1917225064244</v>
+        <v>-0.3910543678794056</v>
       </c>
       <c r="O2">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P2">
-        <v>-0.4999999999973372</v>
+        <v>-0.5</v>
       </c>
       <c r="Q2">
-        <v>-2.000000000010651</v>
+        <v>-2</v>
       </c>
       <c r="R2">
-        <v>0.3338732761330903</v>
+        <v>0.0006211596337379888</v>
       </c>
       <c r="S2">
-        <v>11.53212518491273</v>
+        <v>0.02145511664639344</v>
       </c>
       <c r="T2">
-        <v>0.006771940968064882</v>
+        <v>1.259894179383991E-05</v>
       </c>
       <c r="U2">
-        <v>2522.300670077326</v>
+        <v>4.692652413854375</v>
       </c>
       <c r="V2">
-        <v>115.616538500879</v>
+        <v>0.215100534260273</v>
       </c>
       <c r="W2">
-        <v>166.0247845682316</v>
+        <v>0.3088833161164075</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -605,70 +605,70 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>-314.7825028132647</v>
+        <v>-0.5856418637558818</v>
       </c>
       <c r="C3">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D3">
-        <v>-0.03338732759584673</v>
+        <v>-6.211598520167172E-05</v>
       </c>
       <c r="E3">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F3">
-        <v>-1.153212518489454</v>
+        <v>-0.002145511662092758</v>
       </c>
       <c r="G3">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H3">
-        <v>-0.0006771940961698419</v>
+        <v>-1.259894816030283E-06</v>
       </c>
       <c r="I3">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J3">
-        <v>-11.56165385013446</v>
+        <v>-0.0215100534260273</v>
       </c>
       <c r="K3">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L3">
-        <v>-16.60247845668346</v>
+        <v>-0.03088833158835769</v>
       </c>
       <c r="M3">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N3">
-        <v>-252.2300670077093</v>
+        <v>-0.46926524117589</v>
       </c>
       <c r="O3">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P3">
-        <v>-0.5999999999982248</v>
+        <v>-0.5999999990458442</v>
       </c>
       <c r="Q3">
-        <v>-1.666666666671598</v>
+        <v>-1.666666669317099</v>
       </c>
       <c r="R3">
-        <v>0.3895188219321426</v>
+        <v>0.0007246864697663113</v>
       </c>
       <c r="S3">
-        <v>13.45414604904363</v>
+        <v>0.02503096939835814</v>
       </c>
       <c r="T3">
-        <v>0.007900597790467145</v>
+        <v>1.469877406634623E-05</v>
       </c>
       <c r="U3">
-        <v>2942.684115090175</v>
+        <v>5.474761146819219</v>
       </c>
       <c r="V3">
-        <v>134.8859615852125</v>
+        <v>0.2509506233036518</v>
       </c>
       <c r="W3">
-        <v>193.6955819944851</v>
+        <v>0.3603638687636703</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -676,70 +676,70 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>-367.2462532827631</v>
+        <v>-0.6832488421350718</v>
       </c>
       <c r="C4">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D4">
-        <v>-0.03895188219030388</v>
+        <v>-7.246862514875829E-05</v>
       </c>
       <c r="E4">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F4">
-        <v>-1.345414604908001</v>
+        <v>-0.002503096942746197</v>
       </c>
       <c r="G4">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H4">
-        <v>-0.0007900597811385524</v>
+        <v>-1.469878043280914E-06</v>
       </c>
       <c r="I4">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J4">
-        <v>-13.48859615856782</v>
+        <v>-0.02509506233036518</v>
       </c>
       <c r="K4">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L4">
-        <v>-19.36955819954164</v>
+        <v>-0.03603638662025332</v>
       </c>
       <c r="M4">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N4">
-        <v>-294.268411509227</v>
+        <v>-0.5474761144723743</v>
       </c>
       <c r="O4">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P4">
-        <v>-0.6999999999991124</v>
+        <v>-0.7</v>
       </c>
       <c r="Q4">
-        <v>-1.42857142857324</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="R4">
-        <v>0.4451643678767141</v>
+        <v>0.0008282128692371771</v>
       </c>
       <c r="S4">
-        <v>15.3761669132291</v>
+        <v>0.02860682220489252</v>
       </c>
       <c r="T4">
-        <v>0.00902925464015425</v>
+        <v>1.679860633885255E-05</v>
       </c>
       <c r="U4">
-        <v>3363.067560105352</v>
+        <v>6.256869879784063</v>
       </c>
       <c r="V4">
-        <v>154.155384669546</v>
+        <v>0.2868007123470306</v>
       </c>
       <c r="W4">
-        <v>221.366379423067</v>
+        <v>0.4118444190826267</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -747,46 +747,46 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>-419.7100037522614</v>
+        <v>-0.7808558195829391</v>
       </c>
       <c r="C5">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D5">
-        <v>-0.04451643681386486</v>
+        <v>-8.282127964776009E-05</v>
       </c>
       <c r="E5">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F5">
-        <v>-1.537616691319272</v>
+        <v>-0.002860682216123678</v>
       </c>
       <c r="G5">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H5">
-        <v>-0.0009029254633787787</v>
+        <v>-1.679861270531546E-06</v>
       </c>
       <c r="I5">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J5">
-        <v>-15.41553846700117</v>
+        <v>-0.02868007123470306</v>
       </c>
       <c r="K5">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L5">
-        <v>-22.136637942167</v>
+        <v>-0.04118444235064089</v>
       </c>
       <c r="M5">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N5">
-        <v>-336.3067560102791</v>
+        <v>-0.6256869880016893</v>
       </c>
       <c r="O5">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P5">
         <v>-0.8</v>
@@ -795,22 +795,22 @@
         <v>-1.25</v>
       </c>
       <c r="R5">
-        <v>0.5008099141123239</v>
+        <v>0.0009317394142271951</v>
       </c>
       <c r="S5">
-        <v>17.29818777734181</v>
+        <v>0.03218267493866733</v>
       </c>
       <c r="T5">
-        <v>0.01015791146255651</v>
+        <v>1.889843861135887E-05</v>
       </c>
       <c r="U5">
-        <v>3783.451005115872</v>
+        <v>7.038978615077212</v>
       </c>
       <c r="V5">
-        <v>173.4248077538796</v>
+        <v>0.3226508013904095</v>
       </c>
       <c r="W5">
-        <v>249.0371768493205</v>
+        <v>0.4633249763865024</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -818,70 +818,70 @@
         <v>26</v>
       </c>
       <c r="B6">
-        <v>-472.1737542217597</v>
+        <v>-0.8784627970308065</v>
       </c>
       <c r="C6">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D6">
-        <v>-0.05008099139377009</v>
+        <v>-9.317396325059235E-05</v>
       </c>
       <c r="E6">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F6">
-        <v>-1.729818777730543</v>
+        <v>-0.003218267494958127</v>
       </c>
       <c r="G6">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H6">
-        <v>-0.001015791147437994</v>
+        <v>-1.889843588287476E-06</v>
       </c>
       <c r="I6">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J6">
-        <v>-17.34248077543452</v>
+        <v>-0.03226508013904095</v>
       </c>
       <c r="K6">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L6">
-        <v>-24.90371768525802</v>
+        <v>-0.04633249761536717</v>
       </c>
       <c r="M6">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N6">
-        <v>-378.3451005117968</v>
+        <v>-0.7038978615310043</v>
       </c>
       <c r="O6">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P6">
-        <v>-0.9000000000008875</v>
+        <v>-0.9</v>
       </c>
       <c r="Q6">
-        <v>-1.111111111110015</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="R6">
-        <v>0.5564554599113762</v>
+        <v>0.001035266250255518</v>
       </c>
       <c r="S6">
-        <v>19.22020864145452</v>
+        <v>0.03575852772701182</v>
       </c>
       <c r="T6">
-        <v>0.01128656830314867</v>
+        <v>2.099826178891817E-05</v>
       </c>
       <c r="U6">
-        <v>4203.834450131049</v>
+        <v>7.821087350370362</v>
       </c>
       <c r="V6">
-        <v>192.6942308382131</v>
+        <v>0.3585008904337883</v>
       </c>
       <c r="W6">
-        <v>276.7079742802307</v>
+        <v>0.5148055290337652</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -889,46 +889,46 @@
         <v>27</v>
       </c>
       <c r="B7">
-        <v>-524.6375046903268</v>
+        <v>-0.9760697744786739</v>
       </c>
       <c r="C7">
-        <v>524.6375046903268</v>
+        <v>0.9760697744786739</v>
       </c>
       <c r="D7">
-        <v>-0.05564554597367533</v>
+        <v>-0.0001035266177495942</v>
       </c>
       <c r="E7">
-        <v>0.05564554597367533</v>
+        <v>0.0001035266177495942</v>
       </c>
       <c r="F7">
-        <v>-1.92202086414909</v>
+        <v>-0.003575852777430555</v>
       </c>
       <c r="G7">
-        <v>1.92202086414909</v>
+        <v>0.003575852777430555</v>
       </c>
       <c r="H7">
-        <v>-0.001128656828768726</v>
+        <v>-2.099825906043407E-06</v>
       </c>
       <c r="I7">
-        <v>0.001128656828768726</v>
+        <v>2.099825906043407E-06</v>
       </c>
       <c r="J7">
-        <v>-19.26942308386788</v>
+        <v>-0.03585008904337883</v>
       </c>
       <c r="K7">
-        <v>19.26942308386788</v>
+        <v>0.03585008904337883</v>
       </c>
       <c r="L7">
-        <v>-27.67079742765054</v>
+        <v>-0.05148055288009346</v>
       </c>
       <c r="M7">
-        <v>27.67079742765054</v>
+        <v>0.05148055288009346</v>
       </c>
       <c r="N7">
-        <v>-420.3834450130817</v>
+        <v>-0.7821087350603193</v>
       </c>
       <c r="O7">
-        <v>420.3834450130817</v>
+        <v>0.7821087350603193</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -937,22 +937,22 @@
         <v>-1</v>
       </c>
       <c r="R7">
-        <v>0.6121010057104286</v>
+        <v>0.001138792795245536</v>
       </c>
       <c r="S7">
-        <v>21.14222950563999</v>
+        <v>0.0393343805517361</v>
       </c>
       <c r="T7">
-        <v>0.01241522511645599</v>
+        <v>2.309808496647747E-05</v>
       </c>
       <c r="U7">
-        <v>4624.217895143898</v>
+        <v>8.603196085663512</v>
       </c>
       <c r="V7">
-        <v>211.9636539225467</v>
+        <v>0.3943509794771671</v>
       </c>
       <c r="W7">
-        <v>304.378771704156</v>
+        <v>0.566286081681028</v>
       </c>
     </row>
   </sheetData>
